--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,31 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\RunningProjects\Amiga\A600_RGB2HDMI\My Board\A600-RGB2HDMI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dtheodor/Work/RunningProjects/Amiga/A600-RGB2HDMI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFACC9F6-4DB7-49EF-B844-53AB6DD1F105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953B8573-E5D3-0445-A145-2C82E718B835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="PCBWay library parts" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Part</t>
   </si>
@@ -36,35 +48,110 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>PLCC-52 THT-Socket</t>
-  </si>
-  <si>
     <t>Sockets that connects on top of the A600 Denise chip</t>
   </si>
   <si>
-    <t>PinSocket 1x04 P2.54 vertical</t>
-  </si>
-  <si>
     <t>4-pin socket for connecting 5V, GND, SYNC and CLK signals between the rpi zero and the plcc socket</t>
   </si>
   <si>
-    <t>PinSocket 1x12 P2.54 vertical</t>
-  </si>
-  <si>
     <t>12-pin socket for connecting RGB signals between the rpi zero and the plcc socket</t>
   </si>
   <si>
-    <t>PinSocket 1x02 P2.54 vertical</t>
-  </si>
-  <si>
-    <t>2-pin socket for connecting a configuration button (optional)</t>
+    <t>PCBWay Part</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>12 Position Receptacle Connector 0.100" (2.54mm) Through Hole Gold</t>
+  </si>
+  <si>
+    <t>4 Position Receptacle Connector 0.100" (2.54mm) Through Hole Gold</t>
+  </si>
+  <si>
+    <t>2 Position Receptacle Connector 0.100" (2.54mm) Through Hole Gold</t>
+  </si>
+  <si>
+    <t>2-pin socket for connecting a configuration button (optional - just for mounting reasons)</t>
+  </si>
+  <si>
+    <t>52 (4 x 13) Pos PLCC Socket Tin Through Hole</t>
+  </si>
+  <si>
+    <t>iamax</t>
+  </si>
+  <si>
+    <t>asum</t>
+  </si>
+  <si>
+    <t>axpy</t>
+  </si>
+  <si>
+    <t>copy</t>
+  </si>
+  <si>
+    <t>dot</t>
+  </si>
+  <si>
+    <t>sddot</t>
+  </si>
+  <si>
+    <t>nrm2</t>
+  </si>
+  <si>
+    <t>rot</t>
+  </si>
+  <si>
+    <t>rotm</t>
+  </si>
+  <si>
+    <t>scal</t>
+  </si>
+  <si>
+    <t>swap</t>
+  </si>
+  <si>
+    <t>iamin</t>
+  </si>
+  <si>
+    <t>cpu</t>
+  </si>
+  <si>
+    <t>alveo-8CUs</t>
+  </si>
+  <si>
+    <t>alveo-16CUs</t>
+  </si>
+  <si>
+    <t>C5340514</t>
+  </si>
+  <si>
+    <t>C225499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.lcsc.com/product-detail/Female-Headers_CJT-Changjiang-Connectors-A2541HWV-4P_C5340514.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.lcsc.com/product-detail/Female-Headers_CJT-Changjiang-Connectors-A2541HWV-2P_C225499.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.lcsc.com/product-detail/Female-Headers_CJT-Changjiang-Connectors-A2541HWV-12P_C5333411.html </t>
+  </si>
+  <si>
+    <t>https://www.lcsc.com/product-detail/IC-Sockets_Nextron-Nextronics-Engineering-15005211010000_C2828040.html</t>
+  </si>
+  <si>
+    <t>C2828040</t>
+  </si>
+  <si>
+    <t>C5333411</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,6 +163,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -104,16 +199,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -127,6 +225,1937 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2880" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>BLAS L1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2880" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-GR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$1:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>iamax</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>asum</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>axpy</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>copy</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>dot</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sddot</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>nrm2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>rot</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>rotm</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>scal</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>swap</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>iamin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-387A-CD4C-99F5-7D0441D3EB12}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1844416303"/>
+        <c:axId val="1844440399"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1844416303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-GR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1844440399"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1844440399"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>speedup vs OpenBLAS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-GR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-GR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1844416303"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="2400"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-GR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2880" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>SpMV</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2880" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-GR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$17:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>cpu</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>alveo-8CUs</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>alveo-16CUs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$17:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-450F-6C48-90AE-0427783F86C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1851196735"/>
+        <c:axId val="1879556415"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1851196735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-GR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1879556415"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1879556415"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>time (msec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-GR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-GR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1851196735"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="2400"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-GR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F498764A-5499-0481-523F-11CA5674E8DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FBBDA67-5497-1054-EDD3-7CACBE86CF4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -392,19 +2421,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="94.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="94.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="108.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -414,53 +2445,224 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{3D60EE22-077F-F74E-BCB7-3FCF7ED0222C}"/>
+    <hyperlink ref="E5" r:id="rId2" xr:uid="{B48AA3CD-B1C5-B947-B5F7-FEA9BAED2A95}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{F409D8D3-DAFA-F340-9E2F-0EC2B4AD5966}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1431172-6C17-5941-8F4D-5815BFF1DE22}">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>